--- a/biology/Zoologie/Clypeasterophilus/Clypeasterophilus.xlsx
+++ b/biology/Zoologie/Clypeasterophilus/Clypeasterophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clypeasterophilus est un genre de crabes, ses espèces sont symbiotique d'échinodermes.
 </t>
@@ -511,7 +523,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clypeasterophilus est très proche de Dissodactylus.
 </t>
@@ -542,7 +556,9 @@
           <t>Hotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des espèces symbiotiques d’échinides irréguliers.
 Les hôtes appartiennent à la famille des Clypeasteridae, et plus particulièrement au genre Clypeaster.
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Clypeasterophilus juvenilis (Bouvier, 1917)
 Clypeasterophilus rugatus (Bouvier, 1917)
@@ -607,7 +625,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Campos &amp; Griffith, 1990 : Clypeasterophilus, a new genus to receive the small-palped species of the Dissodactylus complex (Brachyura: Pinnotheridae). Journal of Crustacean Biology, vol. 10, n. 3, p. 550–553.</t>
         </is>
